--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn jan-jun 2025.xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn jan-jun 2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\4. Avdeling MHV\Luftovervåkning\Prosjekter\Rådata til interaktivt dashbord TFK (2025)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21EF90EA-20F6-4E6E-88F5-78020DE092BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{21EF90EA-20F6-4E6E-88F5-78020DE092BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1AE0F44-C459-4436-93EB-5E3C271E6BD2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="17640" xr2:uid="{4643B096-CE8C-4923-8F01-7BBC9E6699B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{4643B096-CE8C-4923-8F01-7BBC9E6699B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2361-2473-2723-2724-1" sheetId="1" r:id="rId1"/>
@@ -926,9 +926,12 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45658</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45659</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45660</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45661</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45662</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45663</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45664</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45665</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45666</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45667</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45668</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45669</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45670</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45671</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45672</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45673</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45674</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45675</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45676</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45677</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45678</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45679</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45680</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45681</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45682</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45683</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45684</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45685</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45686</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45687</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45688</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45689</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45690</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45691</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45692</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45693</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45694</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45695</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45696</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45697</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45698</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45699</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45700</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45701</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45702</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45703</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45704</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45705</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45706</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45707</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45708</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45709</v>
       </c>
@@ -4178,7 +4181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45710</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45711</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45712</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45713</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45714</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45715</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45716</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45717</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45718</v>
       </c>
@@ -4736,7 +4739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45719</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45720</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45721</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45722</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45723</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45724</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45725</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45726</v>
       </c>
@@ -5232,7 +5235,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45727</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45728</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45729</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45730</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45731</v>
       </c>
@@ -5542,7 +5545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45732</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45733</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45734</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45735</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45736</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45737</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45738</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45739</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45740</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45741</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45742</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45743</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45744</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45745</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45746</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45747</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45748</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45749</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45750</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45751</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45752</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45753</v>
       </c>
@@ -6906,7 +6909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45754</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45755</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45756</v>
       </c>
@@ -7092,7 +7095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45757</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45758</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45759</v>
       </c>
@@ -7278,7 +7281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45760</v>
       </c>
@@ -7340,7 +7343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45761</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45762</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45763</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45764</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45765</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45766</v>
       </c>
@@ -7712,7 +7715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45767</v>
       </c>
@@ -7774,7 +7777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45768</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45769</v>
       </c>
@@ -7898,7 +7901,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45770</v>
       </c>
@@ -7960,7 +7963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45771</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45772</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45773</v>
       </c>
@@ -8146,7 +8149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45774</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45775</v>
       </c>
@@ -8270,7 +8273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45776</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45777</v>
       </c>
@@ -8382,7 +8385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45778</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45779</v>
       </c>
@@ -8506,7 +8509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45780</v>
       </c>
@@ -8568,7 +8571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45781</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45782</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45783</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45784</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45785</v>
       </c>
@@ -8878,7 +8881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45786</v>
       </c>
@@ -8940,7 +8943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45787</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45788</v>
       </c>
@@ -9064,7 +9067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45789</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45790</v>
       </c>
@@ -9188,7 +9191,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45791</v>
       </c>
@@ -9250,7 +9253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45792</v>
       </c>
@@ -9312,7 +9315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45793</v>
       </c>
@@ -9374,7 +9377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45794</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45795</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45796</v>
       </c>
@@ -9560,7 +9563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45797</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45798</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45799</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45800</v>
       </c>
@@ -9796,7 +9799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45801</v>
       </c>
@@ -9858,7 +9861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45802</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45803</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45804</v>
       </c>
@@ -10038,7 +10041,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45805</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45806</v>
       </c>
@@ -10162,7 +10165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45807</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45808</v>
       </c>
@@ -10286,7 +10289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45809</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45810</v>
       </c>
@@ -10392,7 +10395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45811</v>
       </c>
@@ -10442,7 +10445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45812</v>
       </c>
@@ -10498,7 +10501,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45813</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45814</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45815</v>
       </c>
@@ -10666,7 +10669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45816</v>
       </c>
@@ -10722,7 +10725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45817</v>
       </c>
@@ -10778,7 +10781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45818</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45819</v>
       </c>
@@ -10890,7 +10893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45820</v>
       </c>
@@ -10952,7 +10955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45821</v>
       </c>
@@ -11014,7 +11017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45822</v>
       </c>
@@ -11076,7 +11079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45823</v>
       </c>
@@ -11138,7 +11141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45824</v>
       </c>
@@ -11200,7 +11203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45825</v>
       </c>
@@ -11262,7 +11265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45826</v>
       </c>
@@ -11324,7 +11327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45827</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45828</v>
       </c>
@@ -11448,7 +11451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45829</v>
       </c>
@@ -11510,7 +11513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45830</v>
       </c>
@@ -11572,7 +11575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45831</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45832</v>
       </c>
@@ -11696,7 +11699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45833</v>
       </c>
@@ -11758,7 +11761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45834</v>
       </c>
@@ -11820,7 +11823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45835</v>
       </c>
@@ -11882,7 +11885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45836</v>
       </c>
@@ -11944,7 +11947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45837</v>
       </c>
@@ -12006,7 +12009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45838</v>
       </c>
